--- a/Door/Altium/DPIAT202304_FRONTDOOR/DPIAT202304_FRONTDOOR/BOM/DPIAT202304_FRONTDOOR.xlsx
+++ b/Door/Altium/DPIAT202304_FRONTDOOR/DPIAT202304_FRONTDOOR/BOM/DPIAT202304_FRONTDOOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projet de fin de DEC\SecurityDoor\Door\Altium\DPIAT202304_FRONTDOOR\DPIAT202304_FRONTDOOR\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AF469-5572-40A5-B38E-D9D2F6A3C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46234B0A-5550-44DD-9FC3-3BC9E8AAC8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53C2E35-A100-4206-AD30-5BB5C1593A3C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{461E78FA-8BEE-40C0-BAD4-F3D076377E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="DPIAT202304_FRONTDOOR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>ADAM Inventory Number 1</t>
+  </si>
+  <si>
     <t>CAP CER 0.1UF 50V X7R 0603</t>
   </si>
   <si>
@@ -65,61 +65,91 @@
     <t>C0603C104K5RAC7411</t>
   </si>
   <si>
+    <t>E00060</t>
+  </si>
+  <si>
+    <t>CAP ALUM 4.7UF 20% 35V SMD</t>
+  </si>
+  <si>
     <t>4.7 µF</t>
   </si>
   <si>
-    <t>CAP ALUM 4.7UF 20% 35V</t>
-  </si>
-  <si>
     <t>EMVE350ADA4R7MD55G</t>
   </si>
   <si>
-    <t>4.7 kOhms</t>
+    <t>E00061</t>
   </si>
   <si>
     <t>RES 4.7K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>RMCF0603FT4K70</t>
-  </si>
-  <si>
-    <t>RESHIGHPOWER 0603 10K 1% 1/4W TC</t>
-  </si>
-  <si>
-    <t>10 kOhms</t>
-  </si>
-  <si>
-    <t>0603 10K 1% 1/4W TC</t>
-  </si>
-  <si>
-    <t>CMP0603-FX-1002ELF</t>
-  </si>
-  <si>
-    <t>80.6 kOhms</t>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K7L</t>
+  </si>
+  <si>
+    <t>E00025</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>E00021</t>
+  </si>
+  <si>
+    <t>FOOTPRINT FOR TEST OR JUST IN CASE</t>
+  </si>
+  <si>
+    <t>12P FOOTPRINT</t>
+  </si>
+  <si>
+    <t>PPTC121LFBN-RC</t>
+  </si>
+  <si>
+    <t>E00074</t>
   </si>
   <si>
     <t>RES SMD 80.6K OHM 1% 1/4W 0603</t>
   </si>
   <si>
-    <t>RCS060380K6FKEA</t>
-  </si>
-  <si>
-    <t>100 kOhms</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 1% 1/4W</t>
-  </si>
-  <si>
-    <t>RCS0603100KFKEA</t>
-  </si>
-  <si>
-    <t>150 Ohms</t>
-  </si>
-  <si>
-    <t>RES SMD 150 OHM 0.1% 1/8W</t>
-  </si>
-  <si>
-    <t>MCT0603MD1500BP100</t>
+    <t>80.6K</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF8062V</t>
+  </si>
+  <si>
+    <t>E00015</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 1% 1/4W 0603</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>E00022</t>
+  </si>
+  <si>
+    <t>RES SMD 150 OHM 0.1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>150R</t>
+  </si>
+  <si>
+    <t>RC0603FR-07150RL</t>
+  </si>
+  <si>
+    <t>E00020</t>
   </si>
   <si>
     <t>SMT 8.7 X 3.0 MM MINI SLIDE SWIT</t>
@@ -128,7 +158,7 @@
     <t>450405020524</t>
   </si>
   <si>
-    <t>SLIDE SWIT</t>
+    <t>E00013</t>
   </si>
   <si>
     <t>SWITCH PUSH SPST-NO 0.4VA 28V</t>
@@ -137,16 +167,25 @@
     <t>AB11AH-HC</t>
   </si>
   <si>
+    <t>E00066</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 2MM</t>
+  </si>
+  <si>
     <t>B2B-PH-K-S(LF)(SN)</t>
   </si>
   <si>
-    <t>CONN JST 2PIN TH</t>
+    <t>E00051</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 10POS 2MM</t>
   </si>
   <si>
     <t>B10B-PH-K-S(LF)(SN)</t>
   </si>
   <si>
-    <t>CONN JST 10POS TH</t>
+    <t>E00053</t>
   </si>
   <si>
     <t>Voice Record/Playback IC Multiple Message 40 ~ 120 Sec Pushbutton, SPI 28-SOIC</t>
@@ -155,13 +194,16 @@
     <t>ISD1760SY</t>
   </si>
   <si>
+    <t>E00041</t>
+  </si>
+  <si>
     <t>SWITCH TACTILE SPST-NO 50MA 32V</t>
   </si>
   <si>
     <t>KMR741NG ULC LFS</t>
   </si>
   <si>
-    <t>Sw Lin KMR741NG ULC LFS</t>
+    <t>E00012</t>
   </si>
   <si>
     <t>TERM BLK 2P SIDE ENT 2.54MM PCB</t>
@@ -173,25 +215,19 @@
     <t>282834-2</t>
   </si>
   <si>
+    <t>E00011</t>
+  </si>
+  <si>
     <t>N-Channel 5.8A (Tj) 350mW Surface Mount SOT-23</t>
   </si>
   <si>
     <t>N-CH 30V 5.8A SOT23</t>
   </si>
   <si>
-    <t>TRANS N-CHANNEL 30V 5.8A SOT23</t>
-  </si>
-  <si>
     <t>SI3404-TP</t>
   </si>
   <si>
-    <t>CONN RCPT 12POS 0.1 GOLD PCB</t>
-  </si>
-  <si>
-    <t>PPTC121LFBN-RC</t>
-  </si>
-  <si>
-    <t>12PO FEM HEADER M20-7821242</t>
+    <t>E00008</t>
   </si>
   <si>
     <t>0603 RED LED</t>
@@ -203,10 +239,19 @@
     <t>BL-HUB36A-AV-TRB</t>
   </si>
   <si>
+    <t>E00069</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>CONN RCPT 2POS 0.1 TIN</t>
+  </si>
+  <si>
     <t>SSW-102-03-T-S</t>
   </si>
   <si>
-    <t>CONN FEM HEADER 2POS</t>
+    <t>E00055</t>
   </si>
   <si>
     <t>TERM BLK 4P SIDE ENT 2.54MM PCB</t>
@@ -215,28 +260,28 @@
     <t>282834-4</t>
   </si>
   <si>
+    <t>E00010</t>
+  </si>
+  <si>
+    <t>RCWCTE TEST POINTS</t>
+  </si>
+  <si>
+    <t>TEST POINTS</t>
+  </si>
+  <si>
+    <t>RCWCTE</t>
+  </si>
+  <si>
+    <t>E00009</t>
+  </si>
+  <si>
     <t>Buzzers Indicator, Internally Driven Magnetic 5 V 30mA 3.1kHz 83dB @ 5V, 10cm Through Hole PC Pins</t>
   </si>
   <si>
     <t>WST-1206BX-17</t>
   </si>
   <si>
-    <t>CAP ALUM 4.7UF 20% 35V SMD</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 1% 1/4W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 150 OHM 0.1% 1/8W 0603</t>
-  </si>
-  <si>
-    <t>CONN HEADER VERT 2POS 2MM</t>
-  </si>
-  <si>
-    <t>CONN HEADER VERT 10POS 2MM</t>
-  </si>
-  <si>
-    <t>CONN RCPT 2POS 0.1 TIN PCB</t>
+    <t>E00001</t>
   </si>
 </sst>
 </file>
@@ -612,20 +657,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB0ED66-7D76-4BB1-BD51-BB2A5BEE3A1F}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB92111-12D1-4E8D-B548-1878BFBCC601}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -647,348 +687,379 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="E1:E21"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
